--- a/src/resource/Q&A.xlsx
+++ b/src/resource/Q&A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Question</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,7 +186,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SpringBOOT和Spring的区别</t>
+    <t>http://blog.csdn.net/jianyuerensheng/article/details/51258942</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kafka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hbase二级索引（ES怎么做）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hbase原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zookeeper在Hbase中的作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询语句运行的流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zookeeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zookeeper的选举机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kafka触发consumer rebalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kafka消息回滚怎么做（同步异步）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kafka下的生产消费者模式与订阅发布模式的实现和区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spark Streaming的receiver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storm的topo要kill掉重新submit才能继续消费kafka，怎么解决？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Bolts任务卡住了，尽量让每个Bolts任务处理简单的逻辑。
+2.卡在Ack，关掉Ack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -194,51 +247,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://blog.csdn.net/jianyuerensheng/article/details/51258942</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kafka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hbase二级索引（ES怎么做）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hbase原理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zookeeper在Hbase中的作用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询语句运行的流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zookeeper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zookeeper的选举机制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kafka触发consumer rebalance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kafka消息回滚怎么做（同步异步）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kafka下的生产消费者模式与订阅发布模式的实现和区别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spark Streaming的receiver</t>
+    <t>SpringBOOT和Spring的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BufferedReader br = new BufferedReader(new FileReader("d:/test.txt"));
+for(int i=0 ; i&lt;3;i++){br.readLine();}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,6 +490,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -542,41 +562,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -918,43 +932,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:J27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="31.25" customWidth="1"/>
-    <col min="10" max="10" width="26.625" customWidth="1"/>
+    <col min="10" max="10" width="38.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="27" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:15" ht="27" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
       <c r="M3" s="1" t="s">
         <v>4</v>
       </c>
@@ -963,18 +977,18 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="27" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
       <c r="M4" s="5" t="s">
         <v>3</v>
       </c>
@@ -983,563 +997,569 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="27" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
       <c r="M5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="30" t="s">
-        <v>39</v>
+      <c r="O5" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="27" customHeight="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
       <c r="M6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="37" t="s">
-        <v>44</v>
+      <c r="O6" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="27" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
       <c r="M7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="113.25" customHeight="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="7" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:15" ht="130.5" customHeight="1">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="7" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:15" ht="70.5" customHeight="1">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="7" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:15" ht="27" customHeight="1">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:15" ht="99" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="7" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="16" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:15" ht="60.75" customHeight="1">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="7" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:15" ht="27" customHeight="1">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:15" ht="27" customHeight="1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="7" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="27" customHeight="1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="27" customHeight="1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="9"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" ht="27" customHeight="1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" ht="27" customHeight="1">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="9"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" ht="27" customHeight="1">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1">
+      <c r="A24" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A23" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1">
-      <c r="A24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A25" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="12"/>
+      <c r="A25" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" ht="24.75" customHeight="1">
       <c r="A26" s="31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
       <c r="D26" s="32"/>
       <c r="E26" s="33"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" ht="24.75" customHeight="1">
       <c r="A27" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="36"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10" ht="24.75" customHeight="1">
       <c r="A28" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="36"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" ht="24.75" customHeight="1">
       <c r="A29" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="36"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" ht="24.75" customHeight="1">
       <c r="A30" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
       <c r="E30" s="36"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A31" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="12"/>
+      <c r="A31" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" ht="24.75" customHeight="1">
       <c r="A32" s="31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
       <c r="E32" s="33"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10" ht="24.75" customHeight="1">
       <c r="A33" s="31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
       <c r="E33" s="33"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A34" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="12"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="12"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="12"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="12"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="14"/>
     </row>
     <row r="39" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="12"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="12"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="12"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="14"/>
     </row>
     <row r="42" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="12"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="14"/>
     </row>
     <row r="43" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="12"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="84">

--- a/src/resource/Q&A.xlsx
+++ b/src/resource/Q&A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Question</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kafka消息回滚怎么做（同步异步）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Kafka下的生产消费者模式与订阅发布模式的实现和区别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,6 +249,15 @@
   <si>
     <t>BufferedReader br = new BufferedReader(new FileReader("d:/test.txt"));
 for(int i=0 ; i&lt;3;i++){br.readLine();}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hive快捷查询：不启用Mapreduce job启用Fetch task的三种方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kafka消息回滚怎么做（同步异步）
+          也就是说：Kafka消息保证生产的信息不丢失和重复消费问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +473,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -497,6 +502,72 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -505,92 +576,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -932,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:J20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -943,20 +957,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="27" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:15" ht="27" customHeight="1">
       <c r="A3" s="30"/>
@@ -964,11 +978,11 @@
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
       <c r="M3" s="1" t="s">
         <v>4</v>
       </c>
@@ -984,11 +998,11 @@
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
       <c r="M4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1004,11 +1018,11 @@
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
       <c r="M5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1024,11 +1038,11 @@
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
       <c r="M6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1044,525 +1058,595 @@
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
       <c r="M7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="113.25" customHeight="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="9" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:15" ht="130.5" customHeight="1">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="9" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:15" ht="70.5" customHeight="1">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="9" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:15" ht="27" customHeight="1">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:15" ht="99" customHeight="1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="9" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="18" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:15" ht="60.75" customHeight="1">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="9" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:15" ht="27" customHeight="1">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:15" ht="27" customHeight="1">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="9" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" ht="27" customHeight="1">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" ht="27" customHeight="1">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" ht="27" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="9" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="1:10" ht="27" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
+    </row>
+    <row r="22" spans="1:10" ht="27" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
+    </row>
+    <row r="23" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A25" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A27" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A29" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A30" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A31" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A32" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A33" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A34" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A35" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="1:10" ht="27" customHeight="1">
-      <c r="A21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:10" ht="27" customHeight="1">
-      <c r="A22" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A23" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1">
-      <c r="A24" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A25" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A26" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A27" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="14"/>
-    </row>
-    <row r="29" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A29" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="14"/>
-    </row>
-    <row r="30" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A30" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
-    </row>
-    <row r="31" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A31" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="14"/>
-    </row>
-    <row r="32" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A32" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="14"/>
-    </row>
-    <row r="33" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A33" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="14"/>
-    </row>
-    <row r="34" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A34" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14"/>
-    </row>
-    <row r="35" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="14"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="14"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="14"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="14"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="14"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="14"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="14"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="14"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="F35:J35"/>
     <mergeCell ref="A41:E41"/>
     <mergeCell ref="A42:E42"/>
     <mergeCell ref="A43:E43"/>
@@ -1579,74 +1663,6 @@
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
